--- a/files/csv/测试.xlsx
+++ b/files/csv/测试.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-04-17 13 01 00" r:id="rId3" sheetId="1"/>
+    <sheet name="2018-04-18 11 37 00" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/files/csv/测试.xlsx
+++ b/files/csv/测试.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-04-18 11 37 00" r:id="rId3" sheetId="1"/>
+    <sheet name="2018-05-18 17 03 00" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
